--- a/data/trans_orig/P14A24_2015-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A24_2015-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DB05A22-09BA-4032-A139-5ECB99B027CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA820D08-7D74-4B94-B528-435F831AC925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C0003199-7551-47C4-9483-74FFA3803E0B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6319F3D9-6516-426E-B4F6-8BFF31418016}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="117">
   <si>
     <t>Población que recibe medicación o terapia por trastornos de ansiedad en 2015 (Tasa respuesta: 4,2%)</t>
   </si>
@@ -83,19 +83,19 @@
     <t>78,23%</t>
   </si>
   <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
   </si>
   <si>
     <t>76,66%</t>
   </si>
   <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,19 +107,19 @@
     <t>21,77%</t>
   </si>
   <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
   </si>
   <si>
     <t>23,34%</t>
   </si>
   <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,49 +131,49 @@
     <t>74,49%</t>
   </si>
   <si>
-    <t>35,25%</t>
+    <t>34,24%</t>
   </si>
   <si>
     <t>92,8%</t>
   </si>
   <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
   </si>
   <si>
     <t>89,81%</t>
   </si>
   <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
   </si>
   <si>
     <t>25,51%</t>
   </si>
   <si>
-    <t>64,75%</t>
+    <t>65,76%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
   </si>
   <si>
     <t>10,19%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -182,49 +182,49 @@
     <t>86,97%</t>
   </si>
   <si>
-    <t>60,18%</t>
+    <t>60,31%</t>
   </si>
   <si>
     <t>90,43%</t>
   </si>
   <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
   </si>
   <si>
     <t>89,79%</t>
   </si>
   <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
   </si>
   <si>
     <t>13,03%</t>
   </si>
   <si>
-    <t>39,82%</t>
+    <t>39,69%</t>
   </si>
   <si>
     <t>9,57%</t>
   </si>
   <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
   </si>
   <si>
     <t>10,21%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -236,13 +236,19 @@
     <t>93,48%</t>
   </si>
   <si>
-    <t>82,77%</t>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
   </si>
   <si>
     <t>94,87%</t>
   </si>
   <si>
-    <t>86,43%</t>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
   </si>
   <si>
     <t>0%</t>
@@ -254,13 +260,19 @@
     <t>6,52%</t>
   </si>
   <si>
-    <t>17,23%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
   </si>
   <si>
     <t>5,13%</t>
   </si>
   <si>
-    <t>13,57%</t>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -269,103 +281,109 @@
     <t>76,64%</t>
   </si>
   <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
   </si>
   <si>
     <t>84,27%</t>
   </si>
   <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
   </si>
   <si>
     <t>82,12%</t>
   </si>
   <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
   </si>
   <si>
     <t>23,36%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
   </si>
   <si>
     <t>15,73%</t>
   </si>
   <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
   </si>
   <si>
     <t>17,88%</t>
   </si>
   <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
   </si>
   <si>
     <t>83,28%</t>
   </si>
   <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
   </si>
   <si>
     <t>89,14%</t>
   </si>
   <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
   </si>
   <si>
     <t>87,86%</t>
   </si>
   <si>
-    <t>91,34%</t>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
   </si>
   <si>
     <t>16,72%</t>
   </si>
   <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
   </si>
   <si>
     <t>10,86%</t>
   </si>
   <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
   </si>
   <si>
     <t>12,14%</t>
   </si>
   <si>
-    <t>8,66%</t>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -780,7 +798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A734A4-6350-4541-BACD-E3F14A374E07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D5247EA-B27F-4EA7-9491-7A0968F8B874}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1390,7 +1408,7 @@
         <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
@@ -1399,13 +1417,13 @@
         <v>61085</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1423,10 +1441,10 @@
         <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -1435,13 +1453,13 @@
         <v>3304</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -1450,13 +1468,13 @@
         <v>3304</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1512,7 +1530,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1524,13 +1542,13 @@
         <v>19595</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
@@ -1539,13 +1557,13 @@
         <v>54743</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -1554,13 +1572,13 @@
         <v>74338</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1575,13 +1593,13 @@
         <v>5972</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -1590,13 +1608,13 @@
         <v>10217</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -1605,13 +1623,13 @@
         <v>16189</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1679,13 +1697,13 @@
         <v>53861</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H19" s="7">
         <v>189</v>
@@ -1694,13 +1712,13 @@
         <v>207072</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M19" s="7">
         <v>241</v>
@@ -1709,13 +1727,13 @@
         <v>260932</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1730,13 +1748,13 @@
         <v>10815</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -1745,13 +1763,13 @@
         <v>25233</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>35</v>
@@ -1760,13 +1778,13 @@
         <v>36049</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1822,7 +1840,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A24_2015-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A24_2015-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA820D08-7D74-4B94-B528-435F831AC925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CA71CC7-7AC2-4C52-AC62-D1A0362E48DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6319F3D9-6516-426E-B4F6-8BFF31418016}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A264243A-F95C-4F43-86A9-DB134F393369}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="117">
   <si>
-    <t>Población que recibe medicación o terapia por trastornos de ansiedad en 2015 (Tasa respuesta: 4,2%)</t>
+    <t>Población que recibe medicación o terapia por trastornos de ansiedad en 2016 (Tasa respuesta: 4,2%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -83,19 +83,19 @@
     <t>78,23%</t>
   </si>
   <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
   </si>
   <si>
     <t>76,66%</t>
   </si>
   <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,37 +107,37 @@
     <t>21,77%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
   </si>
   <si>
     <t>23,34%</t>
   </si>
   <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>74,49%</t>
   </si>
   <si>
-    <t>34,24%</t>
+    <t>34,87%</t>
   </si>
   <si>
     <t>92,8%</t>
   </si>
   <si>
-    <t>78,65%</t>
+    <t>81,8%</t>
   </si>
   <si>
     <t>97,86%</t>
@@ -146,16 +146,16 @@
     <t>89,81%</t>
   </si>
   <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
   </si>
   <si>
     <t>25,51%</t>
   </si>
   <si>
-    <t>65,76%</t>
+    <t>65,13%</t>
   </si>
   <si>
     <t>7,2%</t>
@@ -164,70 +164,70 @@
     <t>2,14%</t>
   </si>
   <si>
-    <t>21,35%</t>
+    <t>18,2%</t>
   </si>
   <si>
     <t>10,19%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>86,97%</t>
   </si>
   <si>
-    <t>60,31%</t>
+    <t>60,14%</t>
   </si>
   <si>
     <t>90,43%</t>
   </si>
   <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
   </si>
   <si>
     <t>89,79%</t>
   </si>
   <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
   </si>
   <si>
     <t>13,03%</t>
   </si>
   <si>
-    <t>39,69%</t>
+    <t>39,86%</t>
   </si>
   <si>
     <t>9,57%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
   </si>
   <si>
     <t>10,21%</t>
   </si>
   <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>86,51%</t>
@@ -236,16 +236,16 @@
     <t>93,48%</t>
   </si>
   <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
   </si>
   <si>
     <t>94,87%</t>
   </si>
   <si>
-    <t>86,08%</t>
+    <t>86,19%</t>
   </si>
   <si>
     <t>98,34%</t>
@@ -260,10 +260,10 @@
     <t>6,52%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
   </si>
   <si>
     <t>5,13%</t>
@@ -272,7 +272,7 @@
     <t>1,66%</t>
   </si>
   <si>
-    <t>13,92%</t>
+    <t>13,81%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -281,109 +281,109 @@
     <t>76,64%</t>
   </si>
   <si>
-    <t>55,8%</t>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
   </si>
   <si>
     <t>91,72%</t>
   </si>
   <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
     <t>82,12%</t>
   </si>
   <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
   </si>
   <si>
     <t>23,36%</t>
   </si>
   <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
+    <t>26,86%</t>
   </si>
   <si>
     <t>17,88%</t>
   </si>
   <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
   </si>
   <si>
     <t>83,28%</t>
   </si>
   <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
   </si>
   <si>
     <t>89,14%</t>
   </si>
   <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
   </si>
   <si>
     <t>87,86%</t>
   </si>
   <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
   </si>
   <si>
     <t>16,72%</t>
   </si>
   <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
   </si>
   <si>
     <t>10,86%</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
   </si>
   <si>
     <t>12,14%</t>
   </si>
   <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -798,7 +798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D5247EA-B27F-4EA7-9491-7A0968F8B874}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2021D86-FF3A-4B61-B2B8-9C2C131226A5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
